--- a/tests/excel/Equipment.xlsx
+++ b/tests/excel/Equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D-Workspace\prothon\test\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D-Workspace\prothon\tests\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D6873-EA11-4B7A-9A8E-5B5C54C0D386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F7DA73-D9DE-4221-BE74-01FDB878B976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="3060" windowWidth="23280" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="129">
   <si>
     <t>*root</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빔 스워드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Live</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,9 +189,6 @@
     <t>*parent</t>
   </si>
   <si>
-    <t>Equipment</t>
-  </si>
-  <si>
     <t>테스트 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,259 +219,264 @@
     <t>ITPR0003</t>
   </si>
   <si>
+    <t>ITPR0005</t>
+  </si>
+  <si>
+    <t>ITPR0006</t>
+  </si>
+  <si>
+    <t>ITPR0007</t>
+  </si>
+  <si>
+    <t>ITPR0008</t>
+  </si>
+  <si>
+    <t>ITPR0009</t>
+  </si>
+  <si>
+    <t>ITPR0010</t>
+  </si>
+  <si>
+    <t>ITPR0011</t>
+  </si>
+  <si>
+    <t>ITPR0012</t>
+  </si>
+  <si>
+    <t>ITPR0013</t>
+  </si>
+  <si>
+    <t>ITPR0014</t>
+  </si>
+  <si>
+    <t>ITPR0015</t>
+  </si>
+  <si>
+    <t>ITPR0016</t>
+  </si>
+  <si>
+    <t>ITPR0017</t>
+  </si>
+  <si>
+    <t>ITPR0018</t>
+  </si>
+  <si>
+    <t>ITPR0019</t>
+  </si>
+  <si>
+    <t>ITPR0020</t>
+  </si>
+  <si>
+    <t>ITPR0021</t>
+  </si>
+  <si>
+    <t>ITPR0022</t>
+  </si>
+  <si>
+    <t>ITPR0023</t>
+  </si>
+  <si>
+    <t>ITPR0024</t>
+  </si>
+  <si>
+    <t>ITPR0025</t>
+  </si>
+  <si>
+    <t>ITPR0026</t>
+  </si>
+  <si>
+    <t>ITPR0027</t>
+  </si>
+  <si>
+    <t>ITPR0028</t>
+  </si>
+  <si>
+    <t>ITPR0029</t>
+  </si>
+  <si>
+    <t>테스트 LAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT0000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT0000002</t>
+  </si>
+  <si>
+    <t>IT0000003</t>
+  </si>
+  <si>
+    <t>IT0000004</t>
+  </si>
+  <si>
+    <t>IT0000005</t>
+  </si>
+  <si>
+    <t>IT0000006</t>
+  </si>
+  <si>
+    <t>IT0000007</t>
+  </si>
+  <si>
+    <t>IT0000008</t>
+  </si>
+  <si>
+    <t>IT0000009</t>
+  </si>
+  <si>
+    <t>IT0000010</t>
+  </si>
+  <si>
+    <t>IT0000011</t>
+  </si>
+  <si>
+    <t>IT0000012</t>
+  </si>
+  <si>
+    <t>IT0000013</t>
+  </si>
+  <si>
+    <t>IT0000014</t>
+  </si>
+  <si>
+    <t>IT0000015</t>
+  </si>
+  <si>
+    <t>IT0000016</t>
+  </si>
+  <si>
+    <t>IT0000017</t>
+  </si>
+  <si>
+    <t>IT0000018</t>
+  </si>
+  <si>
+    <t>IT0000019</t>
+  </si>
+  <si>
+    <t>IT0000020</t>
+  </si>
+  <si>
+    <t>IT0000021</t>
+  </si>
+  <si>
+    <t>IT0000022</t>
+  </si>
+  <si>
+    <t>IT0000023</t>
+  </si>
+  <si>
+    <t>IT0000024</t>
+  </si>
+  <si>
+    <t>IT0000025</t>
+  </si>
+  <si>
+    <t>IT0000026</t>
+  </si>
+  <si>
+    <t>IT0000027</t>
+  </si>
+  <si>
+    <t>IT0000028</t>
+  </si>
+  <si>
+    <t>IT0000029</t>
+  </si>
+  <si>
+    <t>IT0000029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Develop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT0000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT0000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github yml 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part[enum]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id[string]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State[enum]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name[string]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade[enum]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description[string]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value[float]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[enum]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ITPR0004</t>
-  </si>
-  <si>
-    <t>ITPR0005</t>
-  </si>
-  <si>
-    <t>ITPR0006</t>
-  </si>
-  <si>
-    <t>ITPR0007</t>
-  </si>
-  <si>
-    <t>ITPR0008</t>
-  </si>
-  <si>
-    <t>ITPR0009</t>
-  </si>
-  <si>
-    <t>ITPR0010</t>
-  </si>
-  <si>
-    <t>ITPR0011</t>
-  </si>
-  <si>
-    <t>ITPR0012</t>
-  </si>
-  <si>
-    <t>ITPR0013</t>
-  </si>
-  <si>
-    <t>ITPR0014</t>
-  </si>
-  <si>
-    <t>ITPR0015</t>
-  </si>
-  <si>
-    <t>ITPR0016</t>
-  </si>
-  <si>
-    <t>ITPR0017</t>
-  </si>
-  <si>
-    <t>ITPR0018</t>
-  </si>
-  <si>
-    <t>ITPR0019</t>
-  </si>
-  <si>
-    <t>ITPR0020</t>
-  </si>
-  <si>
-    <t>ITPR0021</t>
-  </si>
-  <si>
-    <t>ITPR0022</t>
-  </si>
-  <si>
-    <t>ITPR0023</t>
-  </si>
-  <si>
-    <t>ITPR0024</t>
-  </si>
-  <si>
-    <t>ITPR0025</t>
-  </si>
-  <si>
-    <t>ITPR0026</t>
-  </si>
-  <si>
-    <t>ITPR0027</t>
-  </si>
-  <si>
-    <t>ITPR0028</t>
-  </si>
-  <si>
-    <t>ITPR0029</t>
-  </si>
-  <si>
-    <t>테스트 LAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT0000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT0000002</t>
-  </si>
-  <si>
-    <t>IT0000003</t>
-  </si>
-  <si>
-    <t>IT0000004</t>
-  </si>
-  <si>
-    <t>IT0000005</t>
-  </si>
-  <si>
-    <t>IT0000006</t>
-  </si>
-  <si>
-    <t>IT0000007</t>
-  </si>
-  <si>
-    <t>IT0000008</t>
-  </si>
-  <si>
-    <t>IT0000009</t>
-  </si>
-  <si>
-    <t>IT0000010</t>
-  </si>
-  <si>
-    <t>IT0000011</t>
-  </si>
-  <si>
-    <t>IT0000012</t>
-  </si>
-  <si>
-    <t>IT0000013</t>
-  </si>
-  <si>
-    <t>IT0000014</t>
-  </si>
-  <si>
-    <t>IT0000015</t>
-  </si>
-  <si>
-    <t>IT0000016</t>
-  </si>
-  <si>
-    <t>IT0000017</t>
-  </si>
-  <si>
-    <t>IT0000018</t>
-  </si>
-  <si>
-    <t>IT0000019</t>
-  </si>
-  <si>
-    <t>IT0000020</t>
-  </si>
-  <si>
-    <t>IT0000021</t>
-  </si>
-  <si>
-    <t>IT0000022</t>
-  </si>
-  <si>
-    <t>IT0000023</t>
-  </si>
-  <si>
-    <t>IT0000024</t>
-  </si>
-  <si>
-    <t>IT0000025</t>
-  </si>
-  <si>
-    <t>IT0000026</t>
-  </si>
-  <si>
-    <t>IT0000027</t>
-  </si>
-  <si>
-    <t>IT0000028</t>
-  </si>
-  <si>
-    <t>IT0000029</t>
-  </si>
-  <si>
-    <t>IT0000029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF_INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Develop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT0000012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT0000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>github yml 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part[enum]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id[string]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>State[enum]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name[string]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade[enum]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description[string]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +577,10 @@
   <autoFilter ref="A2:E32" xr:uid="{36A7C2DB-6CF7-487E-BFE5-8B971DF86D10}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{69D03AAA-0BCD-46FA-A138-A8D0A5664204}" name="*parent"/>
-    <tableColumn id="6" xr3:uid="{5DF8F66E-0ABA-4AC3-9D75-0CD2AF97568D}" name="id"/>
-    <tableColumn id="2" xr3:uid="{1BC9005D-DAF3-4D2A-AA19-35BDD0E1388D}" name="state"/>
-    <tableColumn id="3" xr3:uid="{9E96F154-D9DA-4E0B-AD66-631F0C9782F3}" name="effect"/>
-    <tableColumn id="4" xr3:uid="{020E978D-569A-442C-8AAA-99EC6F7F4FD0}" name="value" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{5DF8F66E-0ABA-4AC3-9D75-0CD2AF97568D}" name="Id[string]"/>
+    <tableColumn id="2" xr3:uid="{1BC9005D-DAF3-4D2A-AA19-35BDD0E1388D}" name="State[enum]"/>
+    <tableColumn id="3" xr3:uid="{9E96F154-D9DA-4E0B-AD66-631F0C9782F3}" name="Effect[enum]"/>
+    <tableColumn id="4" xr3:uid="{020E978D-569A-442C-8AAA-99EC6F7F4FD0}" name="Value[float]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -915,13 +909,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
@@ -936,39 +930,39 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -976,19 +970,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -996,19 +990,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>1</v>
@@ -1016,19 +1010,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1</v>
@@ -1036,19 +1030,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>1</v>
@@ -1056,19 +1050,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>1</v>
@@ -1076,19 +1070,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -1096,19 +1090,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>1</v>
@@ -1116,19 +1110,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>1</v>
@@ -1136,19 +1130,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1</v>
@@ -1156,19 +1150,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>1</v>
@@ -1176,19 +1170,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>1</v>
@@ -1196,19 +1190,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1</v>
@@ -1216,19 +1210,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1</v>
@@ -1236,19 +1230,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -1256,19 +1250,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -1276,282 +1270,282 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1568,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74017E04-CB13-4A82-954C-21FBE7181AC7}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1577,8 +1571,8 @@
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -1586,563 +1580,563 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>120</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F32" s="2"/>
     </row>
